--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="5980" windowWidth="27380" windowHeight="13840"/>
+    <workbookView windowWidth="25080" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="技能效果" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -25,7 +21,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="1">
+    <comment ref="E2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -63,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1">
+    <comment ref="I2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -164,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1">
+    <comment ref="J2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -186,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1">
+    <comment ref="K2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -211,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -243,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="1">
+    <comment ref="M2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -266,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1">
+    <comment ref="N2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -288,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="1">
+    <comment ref="E3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -326,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -350,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -380,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1">
+    <comment ref="I3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -427,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="1">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -449,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1">
+    <comment ref="K3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -474,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -506,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1">
+    <comment ref="M3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -529,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1">
+    <comment ref="N3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -556,93 +552,543 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
   <si>
     <t>SkillID</t>
   </si>
   <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>是否必须释放</t>
+  </si>
+  <si>
+    <t>IsBuff</t>
+  </si>
+  <si>
+    <t>CastCondition</t>
+  </si>
+  <si>
+    <t>激活条件</t>
+  </si>
+  <si>
+    <t>连锁技能，连锁的在卡牌上是一行</t>
+  </si>
+  <si>
+    <t>EffectType</t>
+  </si>
+  <si>
+    <t>EffectValue</t>
+  </si>
+  <si>
+    <t>EffectValue2</t>
+  </si>
+  <si>
+    <t>SpecifyTarget</t>
+  </si>
+  <si>
+    <t>SpecifyTarget2</t>
+  </si>
+  <si>
+    <t>D更多介绍</t>
+  </si>
+  <si>
     <t>SkillName</t>
   </si>
   <si>
     <t>IsMustCast</t>
   </si>
   <si>
-    <t>IsBuff</t>
-  </si>
-  <si>
-    <t>CastCondition</t>
-  </si>
-  <si>
     <t>ActiveCondition</t>
   </si>
   <si>
-    <t>EffectType</t>
-  </si>
-  <si>
-    <t>EffectValue</t>
-  </si>
-  <si>
-    <t>EffectValue2</t>
-  </si>
-  <si>
-    <t>SpecifyTarget</t>
-  </si>
-  <si>
-    <t>SpecifyTarget2</t>
-  </si>
-  <si>
-    <t>Des</t>
-  </si>
-  <si>
-    <t>神技</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否必须释放</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活条件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>ChildSkillID</t>
   </si>
   <si>
     <t>DesMore</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>D更多介绍</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>放1</t>
+  </si>
+  <si>
+    <t>摸两张牌放逐一张</t>
+  </si>
+  <si>
+    <t>摸2</t>
+  </si>
+  <si>
+    <t>技能效果</t>
+  </si>
+  <si>
+    <t>生效条件</t>
+  </si>
+  <si>
+    <t>生效条件-可叠加</t>
+  </si>
+  <si>
+    <r>
+      <t>1001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摸牌N</t>
+    </r>
+  </si>
+  <si>
+    <t>每控制一个阵营神器数量</t>
+  </si>
+  <si>
+    <r>
+      <t>1002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放逐N</t>
+    </r>
+  </si>
+  <si>
+    <t>每使用一张机械神器</t>
+  </si>
+  <si>
+    <r>
+      <t>1003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抽取对手的N牌加入自己手牌</t>
+    </r>
+  </si>
+  <si>
+    <t>每控制一个机械神器</t>
+  </si>
+  <si>
+    <r>
+      <t>1004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取中央牌库一张牌</t>
+    </r>
+  </si>
+  <si>
+    <t>控制两个及以上神器</t>
+  </si>
+  <si>
+    <r>
+      <t>1005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取一张中央牌库英雄牌</t>
+    </r>
+  </si>
+  <si>
+    <t>使用过其他的命约英雄</t>
+  </si>
+  <si>
+    <r>
+      <t>1006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击杀一个N战力以下</t>
+    </r>
+  </si>
+  <si>
+    <t>如果对手控制的神器大于1</t>
+  </si>
+  <si>
+    <r>
+      <t>1007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取一个N费以下中央牌</t>
+    </r>
+  </si>
+  <si>
+    <t>每回合打出一次命约英雄</t>
+  </si>
+  <si>
+    <r>
+      <t>1008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摧毁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张对手控制的神器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摧毁敌方的神器剩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加战力</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加金钱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加积分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金钱和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>战力</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加N金钱或战力</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加N金钱或积分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加N金钱和积分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1027</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加N战力和积分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1028</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加N战力或积分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1029</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每回合可以用N钱换X 分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不可被放逐</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1041</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把所有神器当作机械神器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1042</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这回合下次购买神器消耗减少N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1043</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合中获取的神器可以直接用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1044</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放逐自己开启额外回合</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1045</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复制 此汇合用过的一张英雄牌效果</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,57 +1098,171 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.349986266670736"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,30 +1271,240 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -742,90 +1512,366 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="47">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="注释" xfId="11" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
+    <cellStyle name="标题" xfId="15" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
+    <cellStyle name="输出" xfId="22" builtinId="21"/>
+    <cellStyle name="计算" xfId="23" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
+    <cellStyle name="汇总" xfId="28" builtinId="25"/>
+    <cellStyle name="好" xfId="29" builtinId="26"/>
+    <cellStyle name="适中" xfId="30" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1087,208 +2133,448 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="5" max="6" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="14.1666666666667" customWidth="1"/>
+    <col min="6" max="8" width="15.1666666666667" customWidth="1"/>
+    <col min="9" max="9" width="11.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="12.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
+    <col min="12" max="13" width="14.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="13.6666666666667" customWidth="1"/>
+    <col min="16" max="16" width="9.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="44" customHeight="1" spans="1:14">
+      <c r="A2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="N2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+    </row>
+    <row r="4" ht="24" customHeight="1" spans="1:13">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>34</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
       <c r="I4">
-        <v>5</v>
+        <v>1002</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
-        <v>13</v>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1001</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="37.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="14.25" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:1">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" ht="44.25" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:1">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" ht="29.25" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" ht="29.25" spans="1:1">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="29.25" spans="1:1">
+      <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" ht="42.75" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" ht="42.75" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" ht="29.25" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" ht="42.75" spans="1:1">
+      <c r="A19" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" ht="42.75" spans="1:1">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" ht="42.75" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" ht="56.25" spans="1:1">
+      <c r="A22" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" spans="1:1">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" ht="15.75" spans="1:1">
+      <c r="A24" s="9"/>
+    </row>
+    <row r="25" ht="29.25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="1:1">
+      <c r="A26" s="9"/>
+    </row>
+    <row r="27" ht="56.25" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" ht="56.25" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" ht="56.25" spans="1:1">
+      <c r="A29" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" ht="42.75" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" ht="69.75" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="25080" windowHeight="12630"/>
+    <workbookView xWindow="7880" yWindow="560" windowWidth="37880" windowHeight="18240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="技能效果" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$3:$F$56</definedName>
+  </definedNames>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -59,61 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ys z:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-释放条件
-暂时没用
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ys z:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-生效条件
-------
-每控制一个阵营神器数量
-每使用一张机械神器
-每控制一个机械神器
-控制两个及以上神器
-使用过其他的命约英雄
-如果对手控制的神器大于1
-每回合打出一次命约英雄</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1">
+    <comment ref="F2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -160,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="1">
+    <comment ref="G2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -182,7 +136,42 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="1">
+    <comment ref="H2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ys z:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+作用目标---- 当是牌相关
+1000以下叠加
+2000以上特定
+1 中央牌库摸牌区
+2 中央牌库展示区
+4 自己手牌
+8 自己装备区
+16 自己弃牌区
+32 自己牌组
+64 对手手牌
+128 对手装备区
+1001 卡牌阵营
+1002 卡牌类型
+2000 作用目标----- 金钱相关</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -207,146 +196,43 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="J2" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ys z:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+双目标情况
 作用目标---- 当是牌相关
-中央牌库
-自己手牌
-自己装备区
-自己弃牌区
-对手手牌
-对手装备区
-对手弃牌区
-作用目标----- 金钱相关
-卡牌阵营
-卡牌类型</t>
+1000以下叠加
+2000以上特定
+1 中央牌库摸牌区
+2 中央牌库展示区
+4 自己手牌
+8 自己装备区
+16 自己弃牌区
+32 自己牌组
+64 对手手牌
+128 对手装备区
+1001 卡牌阵营
+1002 卡牌类型
+2000 作用目标----- 金钱相关</t>
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-双目标情况
-如从某处摸牌后放入某处</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ys z:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-是否必须释放的</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
-回合buff
-瞬间释放
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ys z:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-释放条件
-暂时没用
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +262,91 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1">
+    <comment ref="N2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ys z:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+释放条件
+暂时没用
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ys z:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是否必须释放的</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+回合buff
+瞬间释放
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -423,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1">
+    <comment ref="G3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -445,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1">
+    <comment ref="I3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -488,40 +458,15 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-作用目标---- 当是牌相关
-中央牌库
-自己手牌
-自己装备区
-自己弃牌区
-对手手牌
-对手装备区
-对手弃牌区
-作用目标----- 金钱相关
-卡牌阵营
-卡牌类型</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-双目标情况
-如从某处摸牌后放入某处</t>
+生效条件
+------
+每控制一个阵营神器数量
+每使用一张机械神器
+每控制一个机械神器
+控制两个及以上神器
+使用过其他的命约英雄
+如果对手控制的神器大于1
+每回合打出一次命约英雄</t>
         </r>
       </text>
     </comment>
@@ -543,6 +488,30 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ys z:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+释放条件
+暂时没用
 </t>
         </r>
       </text>
@@ -552,7 +521,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="128">
   <si>
     <t>int</t>
   </si>
@@ -618,9 +587,6 @@
   </si>
   <si>
     <t>放1</t>
-  </si>
-  <si>
-    <t>摸两张牌放逐一张</t>
   </si>
   <si>
     <t>摸2</t>
@@ -669,20 +635,6 @@
     <t>每使用一张机械神器</t>
   </si>
   <si>
-    <r>
-      <t>1003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抽取对手的N牌加入自己手牌</t>
-    </r>
-  </si>
-  <si>
     <t>每控制一个机械神器</t>
   </si>
   <si>
@@ -1077,18 +1029,298 @@
       <t>复制 此汇合用过的一张英雄牌效果</t>
     </r>
   </si>
+  <si>
+    <t>摸两张牌放逐一张手牌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己手牌</t>
+  </si>
+  <si>
+    <t>自己装备区</t>
+  </si>
+  <si>
+    <t>自己弃牌区</t>
+  </si>
+  <si>
+    <t>对手手牌</t>
+  </si>
+  <si>
+    <t>对手装备区</t>
+  </si>
+  <si>
+    <t>作用目标----- 金钱相关</t>
+  </si>
+  <si>
+    <t>卡牌阵营</t>
+  </si>
+  <si>
+    <t>卡牌类型</t>
+  </si>
+  <si>
+    <t>摸两张牌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸一张牌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加战力2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合增加2个战力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每控制一种阵营的神器加一分</t>
+  </si>
+  <si>
+    <t>每回合最大次数</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxActiveNum</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可被放逐</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得四分</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央牌库展示区</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央牌库摸牌区</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得中央牌库一张牌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取一张英雄牌置于牌库顶</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取三分</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>摧毁一张对手控制的神器</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合增加三个战力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取一个3费及以下的英雄并置于牌顶</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取5分</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加四个战力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取2分</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每控制一个机械神器增加一个战力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>把所有神器当作机械神器</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加两个战力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果控制2个及以上的神器摸一张牌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得三个金钱</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1个金钱和一个战力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸3张牌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得一个金钱或者一个战力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>放逐一个中央牌库的牌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>放逐一个中央牌库或者自己弃牌堆的牌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合增加3个战力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀一个6战力及以下的怪物</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2个金钱</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得一个荣誉和一个金钱</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5个荣誉</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果对手控制的神器不止一个只能留一个</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>放放逐一张手牌或者弃牌堆的牌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>本会恶化增加1战力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合加一金钱</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合第一次打出名曰英雄加一荣誉</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可以放逐这张牌开启一个额外的回合</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合摸一张牌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合增加两个金钱只能用于买机械神器</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1个荣誉</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制次回合使用过的一张英雄牌的效果</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1个金钱</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合增加一个战力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合第一次击杀怪物增加一荣誉</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合增加一个金钱只能用于机械神器</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3分和3钱</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1钱</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3荣誉</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽出对手一张牌加入自己手牌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加一个战力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>用4钱换3分</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>此回合用过其他的名曰英雄就增加2个战力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每使用一张机械神器摸一张牌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff 当前回合有效，神器相当于每回合放一次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己牌组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抽取对手的N牌加入自己X牌</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,137 +1354,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.349986266670736"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1261,8 +1365,64 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1301,210 +1461,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1529,247 +1509,287 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1816,62 +1836,115 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="注释" xfId="11" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
-    <cellStyle name="标题" xfId="15" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
-    <cellStyle name="输出" xfId="22" builtinId="21"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
-    <cellStyle name="汇总" xfId="28" builtinId="25"/>
-    <cellStyle name="好" xfId="29" builtinId="26"/>
-    <cellStyle name="适中" xfId="30" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
+  <cellStyles count="63">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2133,39 +2206,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:V5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="14.1666666666667" customWidth="1"/>
-    <col min="6" max="8" width="15.1666666666667" customWidth="1"/>
-    <col min="9" max="9" width="11.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="12.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="13.3333333333333" customWidth="1"/>
-    <col min="12" max="13" width="14.6666666666667" customWidth="1"/>
-    <col min="15" max="15" width="13.6666666666667" customWidth="1"/>
-    <col min="16" max="16" width="9.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="13" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:23">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -2201,59 +2278,65 @@
       <c r="N1" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="44" customHeight="1" spans="1:14">
+      <c r="O1" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="44" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>7</v>
+      <c r="E2" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="M2" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="O2" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -2262,319 +2345,917 @@
       <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>7</v>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-    </row>
-    <row r="4" ht="24" customHeight="1" spans="1:13">
-      <c r="A4">
+      <c r="O3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+    </row>
+    <row r="4" spans="1:23" s="21" customFormat="1">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1001</v>
+      </c>
+      <c r="G4" s="21">
+        <v>1</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>1</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="24" customFormat="1" ht="37" customHeight="1">
+      <c r="A5" s="23">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <v>1001</v>
+      </c>
+      <c r="G5" s="24">
+        <v>2</v>
+      </c>
+      <c r="H5" s="24">
+        <v>0</v>
+      </c>
+      <c r="I5" s="24">
+        <v>0</v>
+      </c>
+      <c r="K5" s="24">
+        <v>1</v>
+      </c>
+      <c r="L5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="24" customFormat="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="24">
+        <v>1001</v>
+      </c>
+      <c r="G6" s="24">
+        <v>3</v>
+      </c>
+      <c r="L6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="24" customFormat="1">
+      <c r="A7" s="23"/>
+      <c r="C7" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="24">
+        <v>1001</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1</v>
+      </c>
+      <c r="L7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="24" customFormat="1" ht="28">
+      <c r="A8" s="23"/>
+      <c r="C8" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1001</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="27" customFormat="1" ht="28" customHeight="1">
+      <c r="A9" s="26"/>
+      <c r="C9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="27">
+        <v>1001</v>
+      </c>
+      <c r="G9" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4">
+      <c r="C10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F10">
+        <v>1002</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="28" customHeight="1">
+      <c r="C11" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>1002</v>
       </c>
-      <c r="J4">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="28">
+      <c r="C12" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="F12">
+        <v>1002</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="H12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="28">
+      <c r="C13" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13">
+        <v>1002</v>
+      </c>
+      <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="28">
+      <c r="C14" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14">
+        <v>1003</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1001</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="C15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="C16" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="28">
+      <c r="C17" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="28">
+      <c r="C18" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="C19" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="28">
+      <c r="C20" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="C21" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="C22" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="28">
+      <c r="C23" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="C24" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="C25" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="28">
+      <c r="C26" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="C27" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="C28" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="C29" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1020</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="C31" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="C32" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
+      <c r="C33" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11">
+      <c r="C34" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
+      <c r="C35" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" ht="32">
+      <c r="C36" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36">
+        <v>1022</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11">
+      <c r="C37" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11">
+      <c r="C38" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11">
+      <c r="C39" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11">
+      <c r="C40" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" ht="28">
+      <c r="C41" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11">
+      <c r="C42" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" ht="28">
+      <c r="C43" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11">
+      <c r="C44" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="C45" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11">
+      <c r="C46" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11">
+      <c r="C47" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11">
+      <c r="C48" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="C50" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="C51" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="C52" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" ht="28">
+      <c r="C53" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="28">
+      <c r="C54" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="28">
+      <c r="C55" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="28">
+      <c r="C56" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56">
+        <v>1045</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <autoFilter ref="F3:F56"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="37.875" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="14.25" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="3" ht="15" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:5">
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>128</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>1001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="F11">
+        <v>1002</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6"/>
+      <c r="F12">
+        <v>2000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" ht="44.25" spans="1:1">
-      <c r="A11" s="3" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:1">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" ht="29.25" spans="1:1">
-      <c r="A13" s="4" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" ht="29.25" spans="1:1">
-      <c r="A14" s="4" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" ht="29.25" spans="1:1">
-      <c r="A15" s="4" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" ht="42.75" spans="1:1">
-      <c r="A16" s="4" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" ht="42.75" spans="1:1">
-      <c r="A17" s="4" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" ht="29.25" spans="1:1">
-      <c r="A18" s="4" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" ht="42.75" spans="1:1">
-      <c r="A19" s="4" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" ht="42.75" spans="1:1">
-      <c r="A20" s="4" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" ht="42.75" spans="1:1">
-      <c r="A21" s="4" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="9"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" ht="56.25" spans="1:1">
-      <c r="A22" s="7" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="9"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="1:1">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" ht="15.75" spans="1:1">
-      <c r="A24" s="9"/>
-    </row>
-    <row r="25" ht="29.25" spans="1:1">
-      <c r="A25" s="2" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" ht="15.75" spans="1:1">
-      <c r="A26" s="9"/>
-    </row>
-    <row r="27" ht="56.25" spans="1:1">
-      <c r="A27" s="2" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" ht="56.25" spans="1:1">
-      <c r="A28" s="2" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" ht="56.25" spans="1:1">
-      <c r="A29" s="10" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:1">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" ht="42.75" spans="1:1">
-      <c r="A31" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" ht="69.75" spans="1:1">
-      <c r="A32" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="560" windowWidth="37880" windowHeight="18240"/>
+    <workbookView windowWidth="23325" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$3:$F$56</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -521,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <t>int</t>
   </si>
@@ -541,40 +536,49 @@
     <t>是否必须释放</t>
   </si>
   <si>
+    <t>buff 当前回合有效，神器相当于每回合放一次</t>
+  </si>
+  <si>
+    <t>EffectType</t>
+  </si>
+  <si>
+    <t>EffectValue</t>
+  </si>
+  <si>
+    <t>SpecifyTarget</t>
+  </si>
+  <si>
+    <t>EffectValue2</t>
+  </si>
+  <si>
+    <t>SpecifyTarget2</t>
+  </si>
+  <si>
+    <t>每回合最大次数</t>
+  </si>
+  <si>
+    <t>激活条件</t>
+  </si>
+  <si>
+    <t>连锁技能，连锁的在卡牌上是一行</t>
+  </si>
+  <si>
+    <t>D更多介绍</t>
+  </si>
+  <si>
+    <t>CastCondition</t>
+  </si>
+  <si>
+    <t>SkillName</t>
+  </si>
+  <si>
+    <t>IsMustCast</t>
+  </si>
+  <si>
     <t>IsBuff</t>
   </si>
   <si>
-    <t>CastCondition</t>
-  </si>
-  <si>
-    <t>激活条件</t>
-  </si>
-  <si>
-    <t>连锁技能，连锁的在卡牌上是一行</t>
-  </si>
-  <si>
-    <t>EffectType</t>
-  </si>
-  <si>
-    <t>EffectValue</t>
-  </si>
-  <si>
-    <t>EffectValue2</t>
-  </si>
-  <si>
-    <t>SpecifyTarget</t>
-  </si>
-  <si>
-    <t>SpecifyTarget2</t>
-  </si>
-  <si>
-    <t>D更多介绍</t>
-  </si>
-  <si>
-    <t>SkillName</t>
-  </si>
-  <si>
-    <t>IsMustCast</t>
+    <t>MaxActiveNum</t>
   </si>
   <si>
     <t>ActiveCondition</t>
@@ -586,10 +590,178 @@
     <t>DesMore</t>
   </si>
   <si>
+    <t>摸1</t>
+  </si>
+  <si>
+    <t>摸一张牌</t>
+  </si>
+  <si>
+    <t>摸2</t>
+  </si>
+  <si>
+    <t>摸两张牌</t>
+  </si>
+  <si>
+    <t>摸3</t>
+  </si>
+  <si>
+    <t>摸3张牌</t>
+  </si>
+  <si>
+    <t>每回合摸一张牌</t>
+  </si>
+  <si>
+    <t>每使用一张机械神器摸一张牌</t>
+  </si>
+  <si>
+    <t>如果控制2个及以上的神器摸一张牌</t>
+  </si>
+  <si>
     <t>放1</t>
   </si>
   <si>
-    <t>摸2</t>
+    <t>摸两张牌放逐一张手牌</t>
+  </si>
+  <si>
+    <t>放逐一个中央牌库的牌</t>
+  </si>
+  <si>
+    <t>放逐一个中央牌库或者自己弃牌堆的牌</t>
+  </si>
+  <si>
+    <t>放放逐一张手牌或者弃牌堆的牌</t>
+  </si>
+  <si>
+    <t>抽出对手一张牌加入自己手牌</t>
+  </si>
+  <si>
+    <t>获得中央牌库一张牌</t>
+  </si>
+  <si>
+    <t>获取一张英雄牌置于牌库顶</t>
+  </si>
+  <si>
+    <t>击杀一个6战力及以下的怪物</t>
+  </si>
+  <si>
+    <t>获取一个3费及以下的英雄并置于牌顶</t>
+  </si>
+  <si>
+    <t>摧毁一张对手控制的神器</t>
+  </si>
+  <si>
+    <t>如果对手控制的神器不止一个只能留一个</t>
+  </si>
+  <si>
+    <t>本回合增加三个战力</t>
+  </si>
+  <si>
+    <t>增加四个战力</t>
+  </si>
+  <si>
+    <t>每控制一个机械神器增加一个战力</t>
+  </si>
+  <si>
+    <t>增加两个战力</t>
+  </si>
+  <si>
+    <t>每回合增加3个战力</t>
+  </si>
+  <si>
+    <t>此回合用过其他的名曰英雄就增加2个战力</t>
+  </si>
+  <si>
+    <t>本会恶化增加1战力</t>
+  </si>
+  <si>
+    <t>每回合增加一个战力</t>
+  </si>
+  <si>
+    <t>增加一个战力</t>
+  </si>
+  <si>
+    <t>增加战力2</t>
+  </si>
+  <si>
+    <t>本回合增加2个战力</t>
+  </si>
+  <si>
+    <t>获得三个金钱</t>
+  </si>
+  <si>
+    <t>获得2个金钱</t>
+  </si>
+  <si>
+    <t>每回合加一金钱</t>
+  </si>
+  <si>
+    <t>获得1个金钱</t>
+  </si>
+  <si>
+    <t>获得1钱</t>
+  </si>
+  <si>
+    <t>每控制一种阵营的神器加一分</t>
+  </si>
+  <si>
+    <t>获得四分</t>
+  </si>
+  <si>
+    <t>获取三分</t>
+  </si>
+  <si>
+    <t>获取5分</t>
+  </si>
+  <si>
+    <t>获取2分</t>
+  </si>
+  <si>
+    <t>每回合第一次打出名曰英雄加一荣誉</t>
+  </si>
+  <si>
+    <t>获得1个荣誉</t>
+  </si>
+  <si>
+    <t>每回合第一次击杀怪物增加一荣誉</t>
+  </si>
+  <si>
+    <t>获得3荣誉</t>
+  </si>
+  <si>
+    <t>获得5个荣誉</t>
+  </si>
+  <si>
+    <t>获得1个金钱和一个战力</t>
+  </si>
+  <si>
+    <t>获得一个金钱或者一个战力</t>
+  </si>
+  <si>
+    <t>获得一个荣誉和一个金钱</t>
+  </si>
+  <si>
+    <t>获得3分和3钱</t>
+  </si>
+  <si>
+    <t>用4钱换3分</t>
+  </si>
+  <si>
+    <t>不可被放逐</t>
+  </si>
+  <si>
+    <t>把所有神器当作机械神器</t>
+  </si>
+  <si>
+    <t>每回合增加两个金钱只能用于买机械神器</t>
+  </si>
+  <si>
+    <t>每回合增加一个金钱只能用于机械神器</t>
+  </si>
+  <si>
+    <t>你可以放逐这张牌开启一个额外的回合</t>
+  </si>
+  <si>
+    <t>复制次回合使用过的一张英雄牌的效果</t>
   </si>
   <si>
     <t>技能效果</t>
@@ -601,7 +773,16 @@
     <t>生效条件-可叠加</t>
   </si>
   <si>
-    <r>
+    <t>中央牌库摸牌区</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1001</t>
     </r>
     <r>
@@ -618,7 +799,16 @@
     <t>每控制一个阵营神器数量</t>
   </si>
   <si>
-    <r>
+    <t>中央牌库展示区</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1002</t>
     </r>
     <r>
@@ -635,10 +825,42 @@
     <t>每使用一张机械神器</t>
   </si>
   <si>
+    <t>自己手牌</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抽取对手的N牌加入自己X牌</t>
+    </r>
+  </si>
+  <si>
     <t>每控制一个机械神器</t>
   </si>
   <si>
-    <r>
+    <t>自己装备区</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1004</t>
     </r>
     <r>
@@ -655,7 +877,16 @@
     <t>控制两个及以上神器</t>
   </si>
   <si>
-    <r>
+    <t>自己弃牌区</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1005</t>
     </r>
     <r>
@@ -672,7 +903,16 @@
     <t>使用过其他的命约英雄</t>
   </si>
   <si>
-    <r>
+    <t>自己牌组</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1006</t>
     </r>
     <r>
@@ -689,7 +929,16 @@
     <t>如果对手控制的神器大于1</t>
   </si>
   <si>
-    <r>
+    <t>对手手牌</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1007</t>
     </r>
     <r>
@@ -706,7 +955,16 @@
     <t>每回合打出一次命约英雄</t>
   </si>
   <si>
-    <r>
+    <t>对手装备区</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1008</t>
     </r>
     <r>
@@ -738,7 +996,16 @@
     </r>
   </si>
   <si>
-    <r>
+    <t>卡牌阵营</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1009</t>
     </r>
     <r>
@@ -770,7 +1037,19 @@
     </r>
   </si>
   <si>
-    <r>
+    <t>卡牌类型</t>
+  </si>
+  <si>
+    <t>作用目标----- 金钱相关</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1020</t>
     </r>
     <r>
@@ -785,6 +1064,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1021</t>
     </r>
     <r>
@@ -799,6 +1084,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1022</t>
     </r>
     <r>
@@ -813,6 +1104,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1023</t>
     </r>
     <r>
@@ -863,6 +1160,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1024</t>
     </r>
     <r>
@@ -877,6 +1180,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1025</t>
     </r>
     <r>
@@ -891,6 +1200,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1026</t>
     </r>
     <r>
@@ -905,6 +1220,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1027</t>
     </r>
     <r>
@@ -919,6 +1240,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1028</t>
     </r>
     <r>
@@ -933,6 +1260,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1029</t>
     </r>
     <r>
@@ -947,6 +1280,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1040</t>
     </r>
     <r>
@@ -961,6 +1300,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1041</t>
     </r>
     <r>
@@ -975,6 +1320,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1042</t>
     </r>
     <r>
@@ -989,6 +1340,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1043</t>
     </r>
     <r>
@@ -1003,6 +1360,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1044</t>
     </r>
     <r>
@@ -1017,6 +1380,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1045</t>
     </r>
     <r>
@@ -1028,299 +1397,19 @@
       </rPr>
       <t>复制 此汇合用过的一张英雄牌效果</t>
     </r>
-  </si>
-  <si>
-    <t>摸两张牌放逐一张手牌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己手牌</t>
-  </si>
-  <si>
-    <t>自己装备区</t>
-  </si>
-  <si>
-    <t>自己弃牌区</t>
-  </si>
-  <si>
-    <t>对手手牌</t>
-  </si>
-  <si>
-    <t>对手装备区</t>
-  </si>
-  <si>
-    <t>作用目标----- 金钱相关</t>
-  </si>
-  <si>
-    <t>卡牌阵营</t>
-  </si>
-  <si>
-    <t>卡牌类型</t>
-  </si>
-  <si>
-    <t>摸两张牌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>摸1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>摸一张牌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加战力2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合增加2个战力</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每控制一种阵营的神器加一分</t>
-  </si>
-  <si>
-    <t>每回合最大次数</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxActiveNum</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可被放逐</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得四分</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>中央牌库展示区</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>中央牌库摸牌区</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得中央牌库一张牌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取一张英雄牌置于牌库顶</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取三分</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>摧毁一张对手控制的神器</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合增加三个战力</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取一个3费及以下的英雄并置于牌顶</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取5分</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加四个战力</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取2分</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每控制一个机械神器增加一个战力</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>把所有神器当作机械神器</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加两个战力</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果控制2个及以上的神器摸一张牌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得三个金钱</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1个金钱和一个战力</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>摸3张牌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得一个金钱或者一个战力</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>放逐一个中央牌库的牌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>放逐一个中央牌库或者自己弃牌堆的牌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合增加3个战力</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀一个6战力及以下的怪物</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2个金钱</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得一个荣誉和一个金钱</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得5个荣誉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果对手控制的神器不止一个只能留一个</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>放放逐一张手牌或者弃牌堆的牌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>本会恶化增加1战力</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合加一金钱</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合第一次打出名曰英雄加一荣誉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>你可以放逐这张牌开启一个额外的回合</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合摸一张牌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合增加两个金钱只能用于买机械神器</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1个荣誉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制次回合使用过的一张英雄牌的效果</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1个金钱</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合增加一个战力</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合第一次击杀怪物增加一荣誉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合增加一个金钱只能用于机械神器</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得3分和3钱</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1钱</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得3荣誉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽出对手一张牌加入自己手牌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加一个战力</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>用4钱换3分</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>此回合用过其他的名曰英雄就增加2个战力</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每使用一张机械神器摸一张牌</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>摸3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff 当前回合有效，神器相当于每回合放一次</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己牌组</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抽取对手的N牌加入自己X牌</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1354,7 +1443,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.349986266670736"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1363,66 +1487,115 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1455,36 +1628,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149937437055574"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1509,31 +1868,46 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.149998474074526"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.149998474074526"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.149998474074526"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1542,28 +1916,13 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1572,10 +1931,25 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.149998474074526"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.149998474074526"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.149998474074526"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.149998474074526"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1583,209 +1957,244 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1823,128 +2232,113 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="63">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="47">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="注释" xfId="11" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
+    <cellStyle name="标题" xfId="15" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
+    <cellStyle name="输出" xfId="22" builtinId="21"/>
+    <cellStyle name="计算" xfId="23" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
+    <cellStyle name="汇总" xfId="28" builtinId="25"/>
+    <cellStyle name="好" xfId="29" builtinId="26"/>
+    <cellStyle name="适中" xfId="30" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2206,314 +2600,318 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="23.33203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.3333333333333" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.1666666666667" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="13" width="15.1640625" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.3333333333333" customWidth="1"/>
+    <col min="7" max="8" width="8.375" customWidth="1"/>
+    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="10" max="10" width="6.375" customWidth="1"/>
+    <col min="11" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="15.1666666666667" customWidth="1"/>
+    <col min="16" max="16" width="13.6666666666667" customWidth="1"/>
+    <col min="17" max="17" width="9.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="11" customFormat="1" spans="1:15">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="44" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="11" customFormat="1" ht="44" customHeight="1" spans="1:15">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="J2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="K2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="M2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="12" t="s">
+      <c r="N2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="11" customFormat="1" ht="40.5" spans="1:23">
+      <c r="A3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="H3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="I3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-    </row>
-    <row r="4" spans="1:23" s="21" customFormat="1">
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+    </row>
+    <row r="4" s="12" customFormat="1" spans="1:12">
       <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="21">
+      <c r="B4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="12">
         <v>1001</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="12">
         <v>1</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="12">
         <v>0</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="12">
         <v>0</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="12">
         <v>1</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="24" customFormat="1" ht="37" customHeight="1">
-      <c r="A5" s="23">
+    <row r="5" s="13" customFormat="1" ht="37" customHeight="1" spans="1:12">
+      <c r="A5" s="22">
         <v>2</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="24">
+      <c r="B5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="13">
         <v>1</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="13">
         <v>1001</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="13">
         <v>2</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="13">
         <v>0</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="13">
         <v>0</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="13">
         <v>1</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="24" customFormat="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="24">
+    <row r="6" s="13" customFormat="1" spans="1:12">
+      <c r="A6" s="22"/>
+      <c r="B6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
         <v>1001</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="13">
         <v>3</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="24" customFormat="1">
-      <c r="A7" s="23"/>
-      <c r="C7" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="24">
+    <row r="7" s="13" customFormat="1" spans="1:12">
+      <c r="A7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="13">
         <v>1001</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="13">
         <v>1</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="24" customFormat="1" ht="28">
-      <c r="A8" s="23"/>
-      <c r="C8" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="24">
+    <row r="8" s="13" customFormat="1" ht="27" spans="1:7">
+      <c r="A8" s="22"/>
+      <c r="C8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="13">
         <v>1001</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="27" customFormat="1" ht="28" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="C9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="27">
+    <row r="9" s="14" customFormat="1" ht="28" customHeight="1" spans="1:7">
+      <c r="A9" s="24"/>
+      <c r="C9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="14">
         <v>1001</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>57</v>
+        <v>33</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2549,9 +2947,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="28" customHeight="1">
-      <c r="C11" s="17" t="s">
-        <v>95</v>
+    <row r="11" ht="28" customHeight="1" spans="3:11">
+      <c r="C11" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2569,9 +2967,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="28">
-      <c r="C12" s="17" t="s">
-        <v>96</v>
+    <row r="12" ht="27" spans="3:8">
+      <c r="C12" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2586,9 +2984,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="28">
-      <c r="C13" s="17" t="s">
-        <v>103</v>
+    <row r="13" ht="27" spans="3:8">
+      <c r="C13" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="F13">
         <v>1002</v>
@@ -2600,9 +2998,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="28">
-      <c r="C14" s="17" t="s">
-        <v>119</v>
+    <row r="14" ht="27" spans="3:7">
+      <c r="C14" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="F14">
         <v>1003</v>
@@ -2611,121 +3009,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
-      <c r="C15" s="17" t="s">
-        <v>78</v>
+    <row r="15" spans="3:6">
+      <c r="C15" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="F15">
         <v>1004</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
-      <c r="C16" s="17" t="s">
-        <v>79</v>
+    <row r="16" spans="3:6">
+      <c r="C16" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="F16">
         <v>1005</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="28">
-      <c r="C17" s="17" t="s">
-        <v>98</v>
+    <row r="17" ht="27" spans="3:6">
+      <c r="C17" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="F17">
         <v>1006</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="28">
-      <c r="C18" s="17" t="s">
-        <v>83</v>
+    <row r="18" ht="27" spans="3:6">
+      <c r="C18" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="F18">
         <v>1007</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="C19" s="17" t="s">
-        <v>81</v>
+    <row r="19" spans="3:6">
+      <c r="C19" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="F19">
         <v>1008</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="28">
-      <c r="C20" s="17" t="s">
-        <v>102</v>
+    <row r="20" ht="27" spans="3:6">
+      <c r="C20" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="F20">
         <v>1009</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
-      <c r="C21" s="17" t="s">
-        <v>82</v>
+    <row r="21" spans="3:6">
+      <c r="C21" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="F21">
         <v>1020</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
-      <c r="C22" s="17" t="s">
-        <v>85</v>
+    <row r="22" spans="3:6">
+      <c r="C22" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="F22">
         <v>1020</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="28">
-      <c r="C23" s="17" t="s">
-        <v>87</v>
+    <row r="23" ht="27" spans="3:6">
+      <c r="C23" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F23">
         <v>1020</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
-      <c r="C24" s="17" t="s">
-        <v>89</v>
+    <row r="24" spans="3:6">
+      <c r="C24" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="F24">
         <v>1020</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
-      <c r="C25" s="17" t="s">
-        <v>97</v>
+    <row r="25" spans="3:6">
+      <c r="C25" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="F25">
         <v>1020</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="28">
-      <c r="C26" s="17" t="s">
-        <v>122</v>
+    <row r="26" ht="27" spans="3:6">
+      <c r="C26" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="F26">
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
-      <c r="C27" s="17" t="s">
-        <v>104</v>
+    <row r="27" spans="3:6">
+      <c r="C27" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="F27">
         <v>1020</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
-      <c r="C28" s="17" t="s">
-        <v>113</v>
+    <row r="28" spans="3:6">
+      <c r="C28" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="F28">
         <v>1020</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
-      <c r="C29" s="17" t="s">
-        <v>120</v>
+    <row r="29" spans="3:6">
+      <c r="C29" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="F29">
         <v>1020</v>
@@ -2733,10 +3131,10 @@
     </row>
     <row r="30" spans="2:11">
       <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2748,49 +3146,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
-      <c r="C31" s="17" t="s">
-        <v>91</v>
+    <row r="31" spans="3:6">
+      <c r="C31" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="F31">
         <v>1021</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
-      <c r="C32" s="17" t="s">
-        <v>99</v>
+    <row r="32" spans="3:6">
+      <c r="C32" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="F32">
         <v>1021</v>
       </c>
     </row>
-    <row r="33" spans="3:11">
-      <c r="C33" s="17" t="s">
-        <v>105</v>
+    <row r="33" spans="3:6">
+      <c r="C33" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="F33">
         <v>1021</v>
       </c>
     </row>
-    <row r="34" spans="3:11">
-      <c r="C34" s="17" t="s">
-        <v>112</v>
+    <row r="34" spans="3:6">
+      <c r="C34" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="F34">
         <v>1021</v>
       </c>
     </row>
-    <row r="35" spans="3:11">
-      <c r="C35" s="17" t="s">
-        <v>117</v>
+    <row r="35" spans="3:6">
+      <c r="C35" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="F35">
         <v>1021</v>
       </c>
     </row>
-    <row r="36" spans="3:11" ht="32">
-      <c r="C36" s="19" t="s">
-        <v>71</v>
+    <row r="36" ht="33" spans="3:11">
+      <c r="C36" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="F36">
         <v>1022</v>
@@ -2799,161 +3197,161 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:11">
-      <c r="C37" s="17" t="s">
-        <v>75</v>
+    <row r="37" spans="3:6">
+      <c r="C37" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="F37">
         <v>1022</v>
       </c>
     </row>
-    <row r="38" spans="3:11">
-      <c r="C38" s="17" t="s">
-        <v>80</v>
+    <row r="38" spans="3:6">
+      <c r="C38" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="F38">
         <v>1022</v>
       </c>
     </row>
-    <row r="39" spans="3:11">
-      <c r="C39" s="17" t="s">
-        <v>84</v>
+    <row r="39" spans="3:6">
+      <c r="C39" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="F39">
         <v>1022</v>
       </c>
     </row>
-    <row r="40" spans="3:11">
-      <c r="C40" s="17" t="s">
-        <v>86</v>
+    <row r="40" spans="3:6">
+      <c r="C40" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="F40">
         <v>1022</v>
       </c>
     </row>
-    <row r="41" spans="3:11" ht="28">
-      <c r="C41" s="17" t="s">
-        <v>106</v>
+    <row r="41" ht="27" spans="3:6">
+      <c r="C41" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="F41">
         <v>1022</v>
       </c>
     </row>
-    <row r="42" spans="3:11">
-      <c r="C42" s="17" t="s">
-        <v>110</v>
+    <row r="42" spans="3:6">
+      <c r="C42" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="F42">
         <v>1022</v>
       </c>
     </row>
-    <row r="43" spans="3:11" ht="28">
-      <c r="C43" s="17" t="s">
-        <v>114</v>
+    <row r="43" ht="27" spans="3:6">
+      <c r="C43" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="F43">
         <v>1022</v>
       </c>
     </row>
-    <row r="44" spans="3:11">
-      <c r="C44" s="17" t="s">
-        <v>118</v>
+    <row r="44" spans="3:6">
+      <c r="C44" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="F44">
         <v>1022</v>
       </c>
     </row>
-    <row r="45" spans="3:11">
-      <c r="C45" s="17" t="s">
-        <v>101</v>
+    <row r="45" spans="3:6">
+      <c r="C45" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="F45">
         <v>1022</v>
       </c>
     </row>
-    <row r="46" spans="3:11">
-      <c r="C46" s="17" t="s">
-        <v>92</v>
+    <row r="46" spans="3:6">
+      <c r="C46" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="F46">
         <v>1023</v>
       </c>
     </row>
-    <row r="47" spans="3:11">
-      <c r="C47" s="17" t="s">
-        <v>94</v>
+    <row r="47" spans="3:6">
+      <c r="C47" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="F47">
         <v>1024</v>
       </c>
     </row>
-    <row r="48" spans="3:11">
-      <c r="C48" s="17" t="s">
-        <v>100</v>
+    <row r="48" spans="3:6">
+      <c r="C48" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="F48">
         <v>1026</v>
       </c>
     </row>
     <row r="49" spans="3:6">
-      <c r="C49" s="17" t="s">
-        <v>116</v>
+      <c r="C49" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="F49">
         <v>1026</v>
       </c>
     </row>
     <row r="50" spans="3:6">
-      <c r="C50" s="17" t="s">
-        <v>121</v>
+      <c r="C50" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="F50">
         <v>1029</v>
       </c>
     </row>
     <row r="51" spans="3:6">
-      <c r="C51" s="17" t="s">
-        <v>74</v>
+      <c r="C51" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="F51">
         <v>1040</v>
       </c>
     </row>
     <row r="52" spans="3:6">
-      <c r="C52" s="17" t="s">
-        <v>88</v>
+      <c r="C52" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="F52">
         <v>1041</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="28">
-      <c r="C53" s="17" t="s">
-        <v>109</v>
+    <row r="53" ht="27" spans="3:6">
+      <c r="C53" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="F53">
         <v>1042</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="28">
-      <c r="C54" s="17" t="s">
-        <v>115</v>
+    <row r="54" ht="27" spans="3:6">
+      <c r="C54" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="F54">
         <v>1042</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="28">
-      <c r="C55" s="17" t="s">
-        <v>107</v>
+    <row r="55" ht="27" spans="3:6">
+      <c r="C55" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="F55">
         <v>1044</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="28">
-      <c r="C56" s="17" t="s">
-        <v>111</v>
+    <row r="56" ht="27" spans="3:6">
+      <c r="C56" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="F56">
         <v>1045</v>
@@ -2961,301 +3359,293 @@
     </row>
   </sheetData>
   <autoFilter ref="F3:F56"/>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="37.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="37.8333333333333" customWidth="1"/>
+    <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="1" ht="14.25"/>
+    <row r="2" ht="14.25" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="D7">
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="F7">
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="F8">
         <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="D9">
         <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="F9">
         <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="F10">
         <v>1001</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="F11">
         <v>1002</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:7">
       <c r="A12" s="6"/>
       <c r="F12">
         <v>2000</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="1:1">
       <c r="A22" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" spans="1:1">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" ht="15.75" spans="1:1">
       <c r="A24" s="9"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" ht="15.75" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="1:1">
       <c r="A26" s="9"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" ht="15.75" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" spans="1:1">
       <c r="A29" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:1">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" ht="15.75" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="12630"/>
+    <workbookView xWindow="3300" yWindow="0" windowWidth="38400" windowHeight="20120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="技能效果" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$3:$F$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$3:$F$68</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -58,53 +63,6 @@
           <t xml:space="preserve">Administrator:
 回合buff
 瞬间释放
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1001摸牌N
-1002放逐N
-1003抽取对手的N牌加入自己手牌
-1004获取中央牌库一张牌
-1005获取一张中央牌库英雄牌
-1006击杀一个N战力以下
-1007获取一个N费以下中央牌
-1008摧毁N张对手控制的神器
-1009摧毁敌方的神器剩N个
-1020增加战力
-1021增加金钱
-1022增加积分
-1023增加N金钱和X战力
-1024增加N金钱或战力
-1025加N金钱或积分
-1026增加N金钱和积分
-1027增加N战力和积分
-1028增加N战力或积分
-1029每回合可以用N钱换X 分
-1040不可被放逐
-1041把所有神器当作机械神器
-1042这回合下次购买神器消耗减少N
-1043回合中获取的神器可以直接用
-1044放逐自己开启额外回合
-1045复制 此汇合用过的一张英雄牌效果
 </t>
         </r>
       </text>
@@ -227,37 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ys z:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-生效条件
-------
-每控制一个阵营神器数量
-每使用一张机械神器
-每控制一个机械神器
-控制两个及以上神器
-使用过其他的命约英雄
-如果对手控制的神器大于1
-每回合打出一次命约英雄</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="1">
+    <comment ref="O2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -279,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -361,13 +289,15 @@
           <t xml:space="preserve">
 1001摸牌N
 1002放逐N
-1003抽取对手的N牌加入自己手牌
-1004获取中央牌库一张牌
-1005获取一张中央牌库英雄牌
-1006击杀一个N战力以下
-1007获取一个N费以下中央牌
-1008摧毁N张对手控制的神器
-1009摧毁敌方的神器剩N个
+1003放弃一张手牌
+1004抽取对手的N牌加入自己X牌
+1005获取中央牌库一张牌
+1006获取一张中央牌库英雄牌
+1007击杀一个N战力以下
+1008获取一个N费以下中央牌
+1010对对手放技能
+1011摧毁N张控制的神器
+1012摧毁的神器剩N个
 1020增加战力
 1021增加金钱
 1022增加积分
@@ -455,17 +385,18 @@
           <t xml:space="preserve">
 生效条件
 ------
-每控制一个阵营神器数量
-每使用一张机械神器
-每控制一个机械神器
-控制两个及以上神器
-使用过其他的命约英雄
-如果对手控制的神器大于1
-每回合打出一次命约英雄</t>
+1 每控制一个阵营神器数量
+2 每使用一张机械神器
+4 每控制一个机械神器
+8 控制两个及以上派系神器
+16 使用过其他的命约英雄
+32 如果对手控制的神器大于1
+64 每回合打出一次命约英雄
+128 放弃一张手牌</t>
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1">
+    <comment ref="O3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -487,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="141">
   <si>
     <t>int</t>
   </si>
@@ -608,21 +539,9 @@
     <t>摸3张牌</t>
   </si>
   <si>
-    <t>每回合摸一张牌</t>
-  </si>
-  <si>
-    <t>每使用一张机械神器摸一张牌</t>
-  </si>
-  <si>
-    <t>如果控制2个及以上的神器摸一张牌</t>
-  </si>
-  <si>
     <t>放1</t>
   </si>
   <si>
-    <t>摸两张牌放逐一张手牌</t>
-  </si>
-  <si>
     <t>放逐一个中央牌库的牌</t>
   </si>
   <si>
@@ -641,18 +560,9 @@
     <t>获取一张英雄牌置于牌库顶</t>
   </si>
   <si>
-    <t>击杀一个6战力及以下的怪物</t>
-  </si>
-  <si>
     <t>获取一个3费及以下的英雄并置于牌顶</t>
   </si>
   <si>
-    <t>摧毁一张对手控制的神器</t>
-  </si>
-  <si>
-    <t>如果对手控制的神器不止一个只能留一个</t>
-  </si>
-  <si>
     <t>本回合增加三个战力</t>
   </si>
   <si>
@@ -828,213 +738,37 @@
     <t>自己手牌</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抽取对手的N牌加入自己X牌</t>
-    </r>
-  </si>
-  <si>
     <t>每控制一个机械神器</t>
   </si>
   <si>
     <t>自己装备区</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取中央牌库一张牌</t>
-    </r>
-  </si>
-  <si>
     <t>控制两个及以上神器</t>
   </si>
   <si>
     <t>自己弃牌区</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取一张中央牌库英雄牌</t>
-    </r>
-  </si>
-  <si>
     <t>使用过其他的命约英雄</t>
   </si>
   <si>
     <t>自己牌组</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>击杀一个N战力以下</t>
-    </r>
-  </si>
-  <si>
     <t>如果对手控制的神器大于1</t>
   </si>
   <si>
     <t>对手手牌</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1007</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取一个N费以下中央牌</t>
-    </r>
-  </si>
-  <si>
     <t>每回合打出一次命约英雄</t>
   </si>
   <si>
     <t>对手装备区</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1008</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>摧毁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张对手控制的神器</t>
-    </r>
-  </si>
-  <si>
     <t>卡牌阵营</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1009</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>摧毁敌方的神器剩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个</t>
-    </r>
   </si>
   <si>
     <t>卡牌类型</t>
@@ -1397,19 +1131,244 @@
       </rPr>
       <t>复制 此汇合用过的一张英雄牌效果</t>
     </r>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否必须连锁</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsMustChildSkillID</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抽取对手的N牌加入自己X牌</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取中央牌库一张牌</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取一张中央牌库英雄牌</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击杀一个N战力以下</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取一个N费以下中央牌</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放弃一张手牌</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃一张手牌</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸两张牌（弃牌后）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸一张牌（机械神器进场）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸一张牌（每回合）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸一张牌（控制两种以上派系神器）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>放逐一张手牌</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>放逐一张手牌（可以）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>放逐一个中央牌库或者自己弃牌堆的牌（可以）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>放逐一个中央牌库的牌（可以）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀一个6战力及以下的怪物</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀一个4战力及以下的怪物</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010对对手放技能</t>
+  </si>
+  <si>
+    <t>对方Debuff（爆1）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方Debuff（剩1）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>摧毁一张控制的神器</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果控制的神器不止一个只能留一个</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摧毁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张控制的神器</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摧毁的神器剩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1455,30 +1414,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.349986266670736"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1487,115 +1423,67 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="10"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Hannotate SC Regular"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1628,7 +1516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1640,210 +1528,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1868,43 +1582,93 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1913,292 +1677,205 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2217,9 +1894,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2259,21 +1933,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2289,56 +1954,109 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="47">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="注释" xfId="11" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
-    <cellStyle name="标题" xfId="15" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
-    <cellStyle name="输出" xfId="22" builtinId="21"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
-    <cellStyle name="汇总" xfId="28" builtinId="25"/>
-    <cellStyle name="好" xfId="29" builtinId="26"/>
-    <cellStyle name="适中" xfId="30" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
+  <cellStyles count="57">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2600,1052 +2318,1925 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:W56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="23.3333333333333" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="9" style="33"/>
+    <col min="3" max="3" width="30.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="11.3333333333333" customWidth="1"/>
-    <col min="7" max="8" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="8" width="8.33203125" customWidth="1"/>
     <col min="9" max="9" width="6.5" customWidth="1"/>
-    <col min="10" max="10" width="6.375" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
     <col min="11" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="8.625" customWidth="1"/>
-    <col min="15" max="15" width="15.1666666666667" customWidth="1"/>
-    <col min="16" max="16" width="13.6666666666667" customWidth="1"/>
-    <col min="17" max="17" width="9.66666666666667" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:15">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" s="11" customFormat="1" ht="44" customHeight="1" spans="1:15">
-      <c r="A2" s="16" t="s">
+    <row r="1" spans="1:24" s="10" customFormat="1">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="10" customFormat="1" ht="44" customHeight="1">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="P2" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" ht="40.5" spans="1:23">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:24" s="10" customFormat="1" ht="42">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="N3" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="P3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-    </row>
-    <row r="4" s="12" customFormat="1" spans="1:12">
-      <c r="A4" s="20">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+    </row>
+    <row r="4" spans="1:24" s="11" customFormat="1">
+      <c r="A4" s="32">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
         <v>1001</v>
       </c>
-      <c r="G4" s="12">
-        <v>1</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
-        <v>1</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="13" customFormat="1" ht="37" customHeight="1" spans="1:12">
-      <c r="A5" s="22">
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
+        <v>4</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="11" customFormat="1">
+      <c r="A5" s="32">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1001</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
+        <v>4</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="11" customFormat="1">
+      <c r="A6" s="32">
+        <v>3</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1001</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>4</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11">
+        <v>2</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="11" customFormat="1">
+      <c r="A7" s="32">
+        <v>4</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1001</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11">
+        <v>4</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11">
+        <v>8</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="12" customFormat="1" ht="37" customHeight="1">
+      <c r="A8" s="32">
+        <v>5</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
         <v>1001</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G8" s="12">
         <v>2</v>
       </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
-        <v>1</v>
-      </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="13" customFormat="1" spans="1:12">
-      <c r="A6" s="22"/>
-      <c r="B6" s="13" t="s">
+      <c r="H8" s="12">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="12" customFormat="1" ht="37" customHeight="1">
+      <c r="A9" s="32">
+        <v>6</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1001</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12">
+        <v>4</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+      <c r="L9" s="12">
+        <v>128</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="12" customFormat="1">
+      <c r="A10" s="32">
+        <v>7</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="13">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
         <v>1001</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G10" s="12">
         <v>3</v>
       </c>
-      <c r="L6" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="13" customFormat="1" spans="1:12">
-      <c r="A7" s="22"/>
-      <c r="C7" s="23" t="s">
+      <c r="H10" s="12">
+        <v>4</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="12" customFormat="1">
+      <c r="A11" s="32"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:24" s="12" customFormat="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:24" s="13" customFormat="1" ht="28" customHeight="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="38">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="13">
-        <v>1001</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1</v>
-      </c>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="13" customFormat="1" ht="27" spans="1:7">
-      <c r="A8" s="22"/>
-      <c r="C8" s="23" t="s">
+      <c r="C14" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1002</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" s="35">
+        <v>0</v>
+      </c>
+      <c r="J14" s="35">
+        <v>0</v>
+      </c>
+      <c r="K14" s="35">
+        <v>1</v>
+      </c>
+      <c r="L14" s="35">
+        <v>0</v>
+      </c>
+      <c r="M14" s="35">
+        <v>0</v>
+      </c>
+      <c r="N14" s="36">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="38">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1002</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15" s="35">
+        <v>0</v>
+      </c>
+      <c r="J15" s="35">
+        <v>0</v>
+      </c>
+      <c r="K15" s="35">
+        <v>1</v>
+      </c>
+      <c r="L15" s="35">
+        <v>0</v>
+      </c>
+      <c r="M15" s="35">
+        <v>0</v>
+      </c>
+      <c r="N15" s="36">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="28" customHeight="1">
+      <c r="A16" s="38">
+        <v>13</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="13">
-        <v>1001</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" s="14" customFormat="1" ht="28" customHeight="1" spans="1:7">
-      <c r="A9" s="24"/>
-      <c r="C9" s="25" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1002</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="34">
+        <v>0</v>
+      </c>
+      <c r="J16" s="34">
+        <v>0</v>
+      </c>
+      <c r="K16" s="35">
+        <v>1</v>
+      </c>
+      <c r="L16" s="34">
+        <v>0</v>
+      </c>
+      <c r="M16" s="34">
+        <v>0</v>
+      </c>
+      <c r="N16" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="28" customHeight="1">
+      <c r="A17" s="38">
+        <v>14</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1002</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="34">
+        <v>0</v>
+      </c>
+      <c r="J17" s="34">
+        <v>0</v>
+      </c>
+      <c r="K17" s="35">
+        <v>1</v>
+      </c>
+      <c r="L17" s="34">
+        <v>0</v>
+      </c>
+      <c r="M17" s="34">
+        <v>0</v>
+      </c>
+      <c r="N17" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="28">
+      <c r="A18" s="38">
+        <v>15</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="14">
-        <v>1001</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1002</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="28">
+      <c r="A19" s="38">
+        <v>16</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1002</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="38">
+        <v>17</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1002</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="38">
+        <v>18</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1002</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="38">
+        <v>19</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1003</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="37">
+        <v>0</v>
+      </c>
+      <c r="M22" s="37">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="38">
+        <v>20</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1002</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1004</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>4</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>64</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="38">
+        <v>21</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1005</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
         <v>2</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="28" customHeight="1" spans="3:11">
-      <c r="C11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1002</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="38">
+        <v>22</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1006</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>2</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="27" spans="3:8">
-      <c r="C12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1002</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="27" spans="3:8">
-      <c r="C13" s="15" t="s">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>32</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="38">
+        <v>23</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1007</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="38">
+        <v>24</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1007</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="28">
+      <c r="A28" s="38">
+        <v>25</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F13">
-        <v>1002</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="27" spans="3:7">
-      <c r="C14" s="15" t="s">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1008</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>32</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="39">
+        <v>30</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1010</v>
+      </c>
+      <c r="G29">
+        <v>32</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="39">
+        <v>31</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1010</v>
+      </c>
+      <c r="G30">
+        <v>33</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="39">
+        <v>32</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1011</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="39">
+        <v>33</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1012</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="33">
+        <v>50</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F14">
-        <v>1003</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" s="15" t="s">
+      <c r="F33">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="C34" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F15">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="C16" s="15" t="s">
+      <c r="F34">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="C35" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F16">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="17" ht="27" spans="3:6">
-      <c r="C17" s="15" t="s">
+      <c r="F35">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="C36" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F17">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="18" ht="27" spans="3:6">
-      <c r="C18" s="15" t="s">
+      <c r="F36">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="C37" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F18">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="15" t="s">
+      <c r="F37">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="28">
+      <c r="C38" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F19">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="20" ht="27" spans="3:6">
-      <c r="C20" s="15" t="s">
+      <c r="F38">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="C39" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F20">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="C21" s="15" t="s">
+      <c r="F39">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="C40" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F21">
+      <c r="F40">
         <v>1020</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="15" t="s">
+    <row r="41" spans="1:11">
+      <c r="C41" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F22">
+      <c r="F41">
         <v>1020</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="3:6">
-      <c r="C23" s="15" t="s">
+    <row r="42" spans="1:11">
+      <c r="B42" t="s">
         <v>47</v>
       </c>
-      <c r="F23">
+      <c r="C42" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="F42">
         <v>1020</v>
       </c>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="C24" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6">
-      <c r="C25" s="15" t="s">
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="C43" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F25">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="26" ht="27" spans="3:6">
-      <c r="C26" s="15" t="s">
+      <c r="F43">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="C44" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F26">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6">
-      <c r="C27" s="15" t="s">
+      <c r="F44">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="C45" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F27">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6">
-      <c r="C28" s="15" t="s">
+      <c r="F45">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="C46" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F28">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6">
-      <c r="C29" s="15" t="s">
+      <c r="F46">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="C47" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F29">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" t="s">
+      <c r="F47">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16">
+      <c r="C48" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="F48">
+        <v>1022</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1020</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6">
-      <c r="C31" s="15" t="s">
+      <c r="F49">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="C50" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F31">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6">
-      <c r="C32" s="15" t="s">
+      <c r="F50">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="C51" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F32">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6">
-      <c r="C33" s="15" t="s">
+      <c r="F51">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="C52" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F33">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6">
-      <c r="C34" s="15" t="s">
+      <c r="F52">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="C53" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F34">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6">
-      <c r="C35" s="15" t="s">
+      <c r="F53">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F35">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="36" ht="33" spans="3:11">
-      <c r="C36" s="26" t="s">
+      <c r="F54">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F36">
+      <c r="F55">
         <v>1022</v>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6">
-      <c r="C37" s="15" t="s">
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F37">
+      <c r="F56">
         <v>1022</v>
       </c>
     </row>
-    <row r="38" spans="3:6">
-      <c r="C38" s="15" t="s">
+    <row r="57" spans="3:6">
+      <c r="C57" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F38">
+      <c r="F57">
         <v>1022</v>
       </c>
     </row>
-    <row r="39" spans="3:6">
-      <c r="C39" s="15" t="s">
+    <row r="58" spans="3:6">
+      <c r="C58" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F39">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6">
-      <c r="C40" s="15" t="s">
+      <c r="F58">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="C59" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F40">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="41" ht="27" spans="3:6">
-      <c r="C41" s="15" t="s">
+      <c r="F59">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6">
+      <c r="C60" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F41">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6">
-      <c r="C42" s="15" t="s">
+      <c r="F60">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6">
+      <c r="C61" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F42">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="43" ht="27" spans="3:6">
-      <c r="C43" s="15" t="s">
+      <c r="F61">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6">
+      <c r="C62" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F43">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6">
-      <c r="C44" s="15" t="s">
+      <c r="F62">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6">
+      <c r="C63" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F44">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6">
-      <c r="C45" s="15" t="s">
+      <c r="F63">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6">
+      <c r="C64" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F45">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6">
-      <c r="C46" s="15" t="s">
+      <c r="F64">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" ht="28">
+      <c r="C65" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F46">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6">
-      <c r="C47" s="15" t="s">
+      <c r="F65">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" ht="28">
+      <c r="C66" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F47">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6">
-      <c r="C48" s="15" t="s">
+      <c r="F66">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" ht="28">
+      <c r="C67" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F48">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6">
-      <c r="C49" s="15" t="s">
+      <c r="F67">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" ht="28">
+      <c r="C68" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F49">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6">
-      <c r="C50" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F50">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6">
-      <c r="C51" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F51">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6">
-      <c r="C52" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="53" ht="27" spans="3:6">
-      <c r="C53" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="54" ht="27" spans="3:6">
-      <c r="C54" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="55" ht="27" spans="3:6">
-      <c r="C55" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F55">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="56" ht="27" spans="3:6">
-      <c r="C56" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F56">
+      <c r="F68">
         <v>1045</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F3:F56"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <autoFilter ref="F3:F68"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="37.8333333333333" customWidth="1"/>
-    <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
-    <row r="2" ht="14.25" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F6">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1">
+      <c r="A7" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="D7">
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F7">
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F8">
         <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F9">
         <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" thickBot="1">
+      <c r="A10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10">
+        <v>128</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="F10">
         <v>1001</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>109</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1">
+      <c r="A11" t="s">
+        <v>134</v>
       </c>
       <c r="F11">
         <v>1002</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" spans="1:7">
-      <c r="A12" s="6"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="F12">
         <v>2000</v>
       </c>
       <c r="G12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1">
+      <c r="A13" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1">
+      <c r="A15" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:1">
-      <c r="A13" s="4" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="1:1">
-      <c r="A14" s="4" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="1:1">
-      <c r="A15" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" spans="1:1">
-      <c r="A16" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" spans="1:1">
-      <c r="A17" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" spans="1:1">
-      <c r="A18" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="1:1">
-      <c r="A19" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" spans="1:1">
-      <c r="A20" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" spans="1:1">
-      <c r="A21" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" spans="1:1">
-      <c r="A22" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" spans="1:1">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" ht="15.75" spans="1:1">
-      <c r="A24" s="9"/>
-    </row>
-    <row r="25" ht="15.75" spans="1:1">
-      <c r="A25" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" spans="1:1">
-      <c r="A26" s="9"/>
-    </row>
-    <row r="27" ht="15.75" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" spans="1:1">
-      <c r="A29" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" spans="1:1">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" ht="15.75" spans="1:1">
-      <c r="A31" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" spans="1:1">
-      <c r="A32" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="1980" yWindow="0" windowWidth="28700" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$3:$F$63</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -508,7 +513,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="146">
   <si>
     <t>int</t>
   </si>
@@ -1206,7 +1211,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="0" tint="-0.35"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -1220,7 +1225,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="0" tint="-0.35"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -1234,7 +1239,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="0" tint="-0.35"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -1248,7 +1253,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="0" tint="-0.35"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -1262,7 +1267,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="0" tint="-0.35"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -1276,7 +1281,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="0" tint="-0.35"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -1446,19 +1451,20 @@
       </rPr>
       <t>张英雄牌效果</t>
     </r>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,7 +1486,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.35"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -1510,7 +1516,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.349986266670736"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1524,141 +1530,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.35"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1668,8 +1546,36 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="50">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1702,7 +1608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,258 +1620,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2001,325 +1721,89 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.149998474074526"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2454,55 +1938,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="注释" xfId="11" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
-    <cellStyle name="标题" xfId="15" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
-    <cellStyle name="输出" xfId="22" builtinId="21"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
-    <cellStyle name="汇总" xfId="28" builtinId="25"/>
-    <cellStyle name="好" xfId="29" builtinId="26"/>
-    <cellStyle name="适中" xfId="30" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2764,39 +2203,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" style="16"/>
     <col min="3" max="3" width="30.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="14.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="11.3333333333333" customWidth="1"/>
-    <col min="7" max="8" width="8.33333333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="8" width="8.33203125" customWidth="1"/>
     <col min="9" max="9" width="6.5" customWidth="1"/>
-    <col min="10" max="10" width="6.33333333333333" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
     <col min="11" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="9.5" customWidth="1"/>
-    <col min="14" max="14" width="8.66666666666667" customWidth="1"/>
-    <col min="16" max="16" width="15.1666666666667" customWidth="1"/>
-    <col min="17" max="17" width="13.6666666666667" customWidth="1"/>
-    <col min="18" max="18" width="9.66666666666667" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" spans="1:16">
+    <row r="1" spans="1:24" s="13" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2807,10 +2245,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>0</v>
@@ -2846,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" ht="44" customHeight="1" spans="1:16">
+    <row r="2" spans="1:24" s="13" customFormat="1" ht="44" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -2896,7 +2334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="13" customFormat="1" ht="40.5" spans="1:24">
+    <row r="3" spans="1:24" s="13" customFormat="1" ht="42">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -2954,7 +2392,7 @@
       <c r="W3" s="42"/>
       <c r="X3" s="42"/>
     </row>
-    <row r="4" s="14" customFormat="1" spans="1:14">
+    <row r="4" spans="1:24" s="14" customFormat="1">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -2998,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="14" customFormat="1" spans="1:14">
+    <row r="5" spans="1:24" s="14" customFormat="1">
       <c r="A5" s="21">
         <v>2</v>
       </c>
@@ -3042,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="14" customFormat="1" spans="1:14">
+    <row r="6" spans="1:24" s="14" customFormat="1">
       <c r="A6" s="21">
         <v>3</v>
       </c>
@@ -3086,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="14" customFormat="1" ht="27" spans="1:14">
+    <row r="7" spans="1:24" s="14" customFormat="1">
       <c r="A7" s="21">
         <v>4</v>
       </c>
@@ -3130,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="15" customFormat="1" ht="37" customHeight="1" spans="1:14">
+    <row r="8" spans="1:24" s="15" customFormat="1" ht="37" customHeight="1">
       <c r="A8" s="21">
         <v>5</v>
       </c>
@@ -3174,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="15" customFormat="1" ht="37" customHeight="1" spans="1:14">
+    <row r="9" spans="1:24" s="15" customFormat="1" ht="37" customHeight="1">
       <c r="A9" s="21">
         <v>6</v>
       </c>
@@ -3218,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="15" customFormat="1" spans="1:14">
+    <row r="10" spans="1:24" s="15" customFormat="1">
       <c r="A10" s="21">
         <v>7</v>
       </c>
@@ -3262,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:24">
       <c r="A11" s="26">
         <v>11</v>
       </c>
@@ -3309,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:24">
       <c r="A12" s="26">
         <v>12</v>
       </c>
@@ -3356,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="28" customHeight="1" spans="1:14">
+    <row r="13" spans="1:24" ht="28" customHeight="1">
       <c r="A13" s="26">
         <v>13</v>
       </c>
@@ -3397,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="28" customHeight="1" spans="1:14">
+    <row r="14" spans="1:24" ht="28" customHeight="1">
       <c r="A14" s="26">
         <v>14</v>
       </c>
@@ -3438,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="27" spans="1:14">
+    <row r="15" spans="1:24" ht="28">
       <c r="A15" s="26">
         <v>15</v>
       </c>
@@ -3479,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:14">
+    <row r="16" spans="1:24" ht="28">
       <c r="A16" s="26">
         <v>16</v>
       </c>
@@ -3848,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="27" spans="1:14">
+    <row r="25" spans="1:14" ht="28">
       <c r="A25" s="26">
         <v>25</v>
       </c>
@@ -4012,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="27" spans="1:14">
+    <row r="29" spans="1:14">
       <c r="A29" s="27">
         <v>33</v>
       </c>
@@ -4384,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="27" spans="1:14">
+    <row r="38" spans="1:14" ht="28">
       <c r="A38" s="28">
         <v>48</v>
       </c>
@@ -4633,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:14">
+    <row r="44" spans="1:14" ht="16">
       <c r="A44" s="16">
         <v>71</v>
       </c>
@@ -4677,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="27" spans="1:14">
+    <row r="45" spans="1:14">
       <c r="A45" s="16">
         <v>72</v>
       </c>
@@ -5216,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="27" spans="1:14">
+    <row r="58" spans="1:14" ht="28">
       <c r="A58" s="16">
         <v>92</v>
       </c>
@@ -5257,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="27" spans="1:14">
+    <row r="59" spans="1:14" ht="28">
       <c r="A59" s="16">
         <v>93</v>
       </c>
@@ -5298,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:14">
       <c r="A60" s="16">
         <v>94</v>
       </c>
@@ -5366,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="27" spans="1:14">
+    <row r="62" spans="1:14" ht="28">
       <c r="A62" s="16">
         <v>101</v>
       </c>
@@ -5407,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="27" spans="1:14">
+    <row r="63" spans="1:14" ht="28">
       <c r="A63" s="16">
         <v>102</v>
       </c>
@@ -5450,32 +4888,35 @@
     </row>
   </sheetData>
   <autoFilter ref="F3:F63"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="37.8333333333333" customWidth="1"/>
-    <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
-    <row r="2" ht="14.25" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
@@ -5492,7 +4933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
@@ -5509,7 +4950,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>98</v>
       </c>
@@ -5526,7 +4967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>101</v>
       </c>
@@ -5543,7 +4984,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>104</v>
       </c>
@@ -5560,7 +5001,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:7">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>107</v>
       </c>
@@ -5577,7 +5018,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:7">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>110</v>
       </c>
@@ -5594,7 +5035,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:7">
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>113</v>
       </c>
@@ -5611,7 +5052,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:7">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>116</v>
       </c>
@@ -5639,7 +5080,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:7">
+    <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
         <v>121</v>
       </c>
@@ -5650,7 +5091,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:7">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>123</v>
       </c>
@@ -5661,7 +5102,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="1:7">
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="F14">
         <v>2002</v>
@@ -5670,111 +5111,116 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="1:1">
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="1:1">
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="1:1">
+    <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" ht="17.25" spans="1:1">
+    <row r="18" spans="1:1" ht="16">
       <c r="A18" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" ht="17.25" spans="1:1">
+    <row r="19" spans="1:1" ht="16">
       <c r="A19" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="1:1">
+    <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="1:1">
+    <row r="21" spans="1:1">
       <c r="A21" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="1:1">
+    <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="1:1">
+    <row r="23" spans="1:1">
       <c r="A23" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" ht="15.75" spans="1:1">
+    <row r="24" spans="1:1">
       <c r="A24" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="1:1">
+    <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" ht="15.75" spans="1:1">
+    <row r="26" spans="1:1">
       <c r="A26" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" ht="15.75" spans="1:1">
+    <row r="27" spans="1:1">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" ht="15.75" spans="1:1">
+    <row r="28" spans="1:1">
       <c r="A28" s="11"/>
     </row>
-    <row r="29" ht="15.75" spans="1:1">
+    <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" ht="15.75" spans="1:1">
+    <row r="30" spans="1:1">
       <c r="A30" s="11"/>
     </row>
-    <row r="31" ht="15.75" spans="1:1">
+    <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="32" ht="15.75" spans="1:1">
+    <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33" ht="15.75" spans="1:1">
+    <row r="33" spans="1:1">
       <c r="A33" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:1">
+    <row r="34" spans="1:1">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" ht="15.75" spans="1:1">
+    <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" ht="15.75" spans="1:1">
+    <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>